--- a/results/mp/logistic/corona/confidence/126/topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,15 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -70,66 +73,78 @@
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -139,30 +154,36 @@
     <t>like</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>your</t>
   </si>
   <si>
@@ -172,25 +193,22 @@
     <t>!</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -548,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7773972602739726</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4612403100775194</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C4">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4391534391534391</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3333333333333333</v>
+        <v>0.4573643410852713</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3087248322147651</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2444444444444444</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C8">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8407310704960835</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L8">
-        <v>322</v>
+        <v>89</v>
       </c>
       <c r="M8">
-        <v>322</v>
+        <v>89</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1746031746031746</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.8381201044386423</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>321</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>321</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1152815013404826</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,37 +1035,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01457253886010363</v>
+        <v>0.08847184986595175</v>
       </c>
       <c r="C11">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3043</v>
+        <v>340</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,37 +1085,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01397121083827265</v>
+        <v>0.01811125485122898</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E12">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="F12">
-        <v>0.6599999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2329</v>
+        <v>3036</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.8048780487804879</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,37 +1135,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008233679670652813</v>
+        <v>0.01563160118293198</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="E13">
-        <v>0.6</v>
+        <v>0.24</v>
       </c>
       <c r="F13">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>5059</v>
+        <v>2330</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,115 +1185,187 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005491153142159854</v>
+        <v>0.01364063969896519</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="E14">
-        <v>0.75</v>
+        <v>0.37</v>
       </c>
       <c r="F14">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>4890</v>
+        <v>2097</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.009228352640879638</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>119</v>
+      </c>
+      <c r="E15">
+        <v>0.61</v>
+      </c>
+      <c r="F15">
+        <v>0.39</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>5046</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L15">
+        <v>28</v>
+      </c>
+      <c r="M15">
+        <v>28</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.007944073721004131</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>79</v>
+      </c>
+      <c r="E16">
+        <v>0.68</v>
+      </c>
+      <c r="F16">
+        <v>0.32</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3122</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>0.7746478873239436</v>
+      </c>
+      <c r="L16">
+        <v>110</v>
+      </c>
+      <c r="M16">
+        <v>110</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>32</v>
       </c>
-      <c r="K14">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L14">
-        <v>30</v>
-      </c>
-      <c r="M14">
-        <v>30</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15">
-        <v>0.7676056338028169</v>
-      </c>
-      <c r="L15">
-        <v>109</v>
-      </c>
-      <c r="M15">
-        <v>109</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16">
-        <v>0.765625</v>
-      </c>
-      <c r="L16">
-        <v>98</v>
-      </c>
-      <c r="M16">
-        <v>98</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.007742461287693562</v>
+      </c>
+      <c r="C17">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>126</v>
+      </c>
+      <c r="E17">
+        <v>0.7</v>
+      </c>
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>4870</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.7441860465116279</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1290,18 +1380,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="10:17">
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.006324666198172874</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>86</v>
+      </c>
+      <c r="E18">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>4242</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1313,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>0.6875</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1339,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>0.6808510638297872</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1365,15 +1479,15 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L21">
         <v>34</v>
@@ -1391,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.6323529411764706</v>
+        <v>0.66</v>
       </c>
       <c r="L22">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1417,527 +1531,631 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.6054421768707483</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L23">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="M23">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24">
+        <v>0.625</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L25">
+        <v>58</v>
+      </c>
+      <c r="M25">
+        <v>58</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26">
+        <v>0.6108786610878661</v>
+      </c>
+      <c r="L26">
+        <v>146</v>
+      </c>
+      <c r="M26">
+        <v>146</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27">
+        <v>0.6</v>
+      </c>
+      <c r="L27">
+        <v>42</v>
+      </c>
+      <c r="M27">
+        <v>42</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="L28">
+        <v>174</v>
+      </c>
+      <c r="M28">
+        <v>175</v>
+      </c>
+      <c r="N28">
         <v>0.99</v>
       </c>
-      <c r="O23">
+      <c r="O28">
         <v>0.01000000000000001</v>
       </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24">
-        <v>0.6</v>
-      </c>
-      <c r="L24">
-        <v>39</v>
-      </c>
-      <c r="M24">
-        <v>39</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25">
-        <v>0.5857142857142857</v>
-      </c>
-      <c r="L25">
-        <v>41</v>
-      </c>
-      <c r="M25">
-        <v>41</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="L29">
+        <v>36</v>
+      </c>
+      <c r="M29">
+        <v>36</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L30">
+        <v>45</v>
+      </c>
+      <c r="M30">
+        <v>45</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>44</v>
       </c>
-      <c r="K26">
-        <v>0.574468085106383</v>
-      </c>
-      <c r="L26">
-        <v>54</v>
-      </c>
-      <c r="M26">
-        <v>54</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27">
-        <v>0.5564853556485355</v>
-      </c>
-      <c r="L27">
-        <v>133</v>
-      </c>
-      <c r="M27">
-        <v>133</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28">
-        <v>0.550561797752809</v>
-      </c>
-      <c r="L28">
-        <v>49</v>
-      </c>
-      <c r="M28">
-        <v>49</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29">
-        <v>0.4246575342465753</v>
-      </c>
-      <c r="L29">
-        <v>31</v>
-      </c>
-      <c r="M29">
-        <v>31</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30">
-        <v>0.3717948717948718</v>
-      </c>
-      <c r="L30">
-        <v>29</v>
-      </c>
-      <c r="M30">
-        <v>29</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
+    </row>
+    <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.04578754578754578</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L31">
         <v>25</v>
       </c>
       <c r="M31">
+        <v>25</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>26</v>
       </c>
-      <c r="N31">
-        <v>0.96</v>
-      </c>
-      <c r="O31">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.04013377926421405</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="N32">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1148</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.02944162436548223</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>956</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.0202020202020202</v>
+        <v>0.0603290676416819</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N34">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1552</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.01954152574220218</v>
+        <v>0.05179615705931495</v>
       </c>
       <c r="L35">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M35">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N35">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="O35">
-        <v>0.1899999999999999</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2609</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.01884422110552764</v>
+        <v>0.03153611393692777</v>
       </c>
       <c r="L36">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N36">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="O36">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>2343</v>
+        <v>952</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.01726263871763255</v>
+        <v>0.02692307692307692</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N37">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>2391</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.01589857114107466</v>
+        <v>0.0229933110367893</v>
       </c>
       <c r="L38">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="M38">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="N38">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="O38">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>4890</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.01537013801756587</v>
+        <v>0.02184666117065128</v>
       </c>
       <c r="L39">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M39">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="N39">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="O39">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>3139</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.01249268007027133</v>
+        <v>0.02183734939759036</v>
       </c>
       <c r="L40">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M40">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="N40">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="O40">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>5059</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.01162790697674419</v>
+        <v>0.0201638311279143</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N41">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="O41">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2125</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="K42">
-        <v>0.01136890951276102</v>
+        <v>0.01774909237595805</v>
       </c>
       <c r="L42">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="M42">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="N42">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="O42">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>4261</v>
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43">
+        <v>0.01700251889168766</v>
+      </c>
+      <c r="L43">
+        <v>54</v>
+      </c>
+      <c r="M43">
+        <v>79</v>
+      </c>
+      <c r="N43">
+        <v>0.68</v>
+      </c>
+      <c r="O43">
+        <v>0.32</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44">
+        <v>0.0144387517466232</v>
+      </c>
+      <c r="L44">
+        <v>31</v>
+      </c>
+      <c r="M44">
+        <v>42</v>
+      </c>
+      <c r="N44">
+        <v>0.74</v>
+      </c>
+      <c r="O44">
+        <v>0.26</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <v>0.01406799531066823</v>
+      </c>
+      <c r="L45">
+        <v>72</v>
+      </c>
+      <c r="M45">
+        <v>119</v>
+      </c>
+      <c r="N45">
+        <v>0.61</v>
+      </c>
+      <c r="O45">
+        <v>0.39</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46">
+        <v>0.01371774006045106</v>
+      </c>
+      <c r="L46">
+        <v>59</v>
+      </c>
+      <c r="M46">
+        <v>86</v>
+      </c>
+      <c r="N46">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O46">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>4242</v>
       </c>
     </row>
   </sheetData>
